--- a/wled-esp32-control-board.xlsx
+++ b/wled-esp32-control-board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdbnts\KiCad-Projects\wled-esp32-control-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B52D32-37A1-4BA4-9216-0536A29666E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE37271-DAFE-44F4-B3CD-E7FF01AF6202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22155" yWindow="2685" windowWidth="28380" windowHeight="17820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27675" yWindow="4815" windowWidth="28080" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wled-esp32-control-board" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="151">
   <si>
     <t>Source:</t>
   </si>
@@ -457,6 +457,36 @@
   </si>
   <si>
     <t>C83572</t>
+  </si>
+  <si>
+    <t>J101, J102, J103, J104</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>Connector_Generic:Conn_01x03</t>
+  </si>
+  <si>
+    <t>User_Footprint:molex-39773-0003</t>
+  </si>
+  <si>
+    <t>538-39773-0003</t>
+  </si>
+  <si>
+    <t>U106</t>
+  </si>
+  <si>
+    <t>TSOP382xx</t>
+  </si>
+  <si>
+    <t>Interface_Optical:TSOP382xx</t>
+  </si>
+  <si>
+    <t>OptoDevice:Vishay_MINICAST-3Pin</t>
+  </si>
+  <si>
+    <t>782-TSOP38238</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J23" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1527,7 +1557,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J31"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,11 +2361,11 @@
         <v>25</v>
       </c>
       <c r="I2" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2364,11 +2394,11 @@
         <v>29</v>
       </c>
       <c r="I3" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2397,11 +2427,11 @@
         <v>34</v>
       </c>
       <c r="I4" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2430,11 +2460,11 @@
         <v>38</v>
       </c>
       <c r="I5" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2463,11 +2493,11 @@
         <v>41</v>
       </c>
       <c r="I6" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2496,11 +2526,11 @@
         <v>48</v>
       </c>
       <c r="I7" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2529,11 +2559,11 @@
         <v>54</v>
       </c>
       <c r="I8" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2562,11 +2592,11 @@
         <v>60</v>
       </c>
       <c r="I9" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J9" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2574,79 +2604,77 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="I10" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J11" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>70</v>
@@ -2655,31 +2683,31 @@
         <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>70</v>
@@ -2688,97 +2716,97 @@
         <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I13" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I14" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J14" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I15" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>90</v>
@@ -2787,31 +2815,31 @@
         <v>91</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I16" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J16" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>90</v>
@@ -2820,182 +2848,182 @@
         <v>91</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I19" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I20" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I21" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J21" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I22" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3006,29 +3034,93 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I23" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3">
         <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
-        <v>30</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3">
+        <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="3">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3">
+        <f>Table1[[#This Row],[Mult]]*Table1[[#This Row],[Qty]]</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
